--- a/Workshop Budget.xlsx
+++ b/Workshop Budget.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
   <si>
     <t>No.</t>
   </si>
@@ -340,6 +339,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>Logistics</t>
   </si>
 </sst>
 </file>
@@ -710,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1241,11 +1246,11 @@
         <v>6</v>
       </c>
       <c r="F22" s="3">
-        <v>6300</v>
+        <v>11200</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
-        <v>37800</v>
+        <v>67200</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.95" customHeight="1">
@@ -1405,11 +1410,11 @@
         <v>6</v>
       </c>
       <c r="F29" s="3">
-        <v>11200</v>
+        <v>14000</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="0"/>
-        <v>67200</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.95" customHeight="1">
@@ -1580,13 +1585,35 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="6" customFormat="1">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:7" ht="13.95" customHeight="1">
+      <c r="A37" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.95" customHeight="1">
+      <c r="A38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" s="6" customFormat="1">
+      <c r="A39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G39" s="8">
         <f>SUM(G2:G36)</f>
-        <v>2735400</v>
+        <v>2781600</v>
       </c>
     </row>
   </sheetData>
